--- a/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.22562014448413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.50452384750182</v>
+        <v>6.504523847501825</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.89288877206208</v>
@@ -664,7 +664,7 @@
         <v>5.535385705976497</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.611817349158507</v>
+        <v>5.61181734915851</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.077098570292207</v>
+        <v>2.351337451108604</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5876021746432502</v>
+        <v>0.5279908699616415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.678842468834219</v>
+        <v>2.573950329355462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.255269693503267</v>
+        <v>9.381693747402881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.397277283382604</v>
+        <v>2.603484279875652</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6739213991037881</v>
+        <v>0.8097949817713562</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.552354966329191</v>
+        <v>6.561269746239806</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.587691926448315</v>
+        <v>2.478315320603705</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.916681225333132</v>
+        <v>2.806489535565983</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.23308755982005</v>
+        <v>10.24496356212819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.295233927903551</v>
+        <v>8.358437808647533</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.0087917469678</v>
+        <v>10.51715588566619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.81959281602929</v>
+        <v>18.73480644681227</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.20358695028899</v>
+        <v>11.47707036320423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.378525044624356</v>
+        <v>8.334773318150457</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.78477251991325</v>
+        <v>12.91843856344727</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.537807008080623</v>
+        <v>8.544831924466948</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.442379046389883</v>
+        <v>8.649056642108427</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3012368369628104</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4636957707446334</v>
+        <v>0.4636957707446338</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6781037822124376</v>
@@ -769,7 +769,7 @@
         <v>0.3209946273804523</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.325426865371889</v>
+        <v>0.3254268653718892</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1249397958207265</v>
+        <v>0.1405704408618151</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03234522371955653</v>
+        <v>0.03132485201706615</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1630127337975515</v>
+        <v>0.1624364287112</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4055575868889477</v>
+        <v>0.4080967939653755</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09293535467818394</v>
+        <v>0.1179809358929062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02910505345763564</v>
+        <v>0.03764230438043325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3453298305240461</v>
+        <v>0.3528285673114006</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1382876894360131</v>
+        <v>0.1284541899051491</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1543713723104033</v>
+        <v>0.1489726295056377</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8427168085441336</v>
+        <v>0.8104653115778157</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6469508457648706</v>
+        <v>0.6932919217733778</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.902421363638049</v>
+        <v>0.8594615399269578</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.021018057230772</v>
+        <v>0.9945931128966797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6049107194537892</v>
+        <v>0.6391530782336416</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4727533229924635</v>
+        <v>0.4654830690921738</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7938975340340217</v>
+        <v>0.8103984905017664</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5298323839000781</v>
+        <v>0.5331795838485643</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5290959703210233</v>
+        <v>0.5511371054972128</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.201665801327378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.015164015595183</v>
+        <v>-2.015164015595186</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.929876549557391</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2365272191667713</v>
+        <v>-0.8281641684636181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.700582711600482</v>
+        <v>-6.919290811035025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.528026846687935</v>
+        <v>-5.808917669910231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.229270621446358</v>
+        <v>-2.043125748140649</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.068369893314296</v>
+        <v>-8.66982570715809</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.261083789452465</v>
+        <v>-5.618219731563195</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.078770403855999</v>
+        <v>-0.4769446386006273</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.802749137885396</v>
+        <v>-6.617431054434292</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.675079732639571</v>
+        <v>-4.793345707344811</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.244674170312096</v>
+        <v>7.42063596650193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5479198287221959</v>
+        <v>0.4945990667496265</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.542053855945505</v>
+        <v>1.530845772162935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.232502028521013</v>
+        <v>6.654982098856381</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.6205607017798459</v>
+        <v>-0.7818163713400831</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.518218169727879</v>
+        <v>2.27042242290506</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.418923229072371</v>
+        <v>5.362741980045599</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.451732459905336</v>
+        <v>-1.462729131156528</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6905400545286139</v>
+        <v>0.8179655464307316</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1641703014016153</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1033306111077527</v>
+        <v>-0.1033306111077528</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06499726684286165</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01596457230832249</v>
+        <v>-0.04015835609091401</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3166321112137763</v>
+        <v>-0.3234589391061299</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2647517927846427</v>
+        <v>-0.2722154740051482</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07049753964447965</v>
+        <v>-0.06553208183616219</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2817350078127228</v>
+        <v>-0.2763120320841793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1643467293157365</v>
+        <v>-0.1767759670964381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.007046208562499897</v>
+        <v>-0.0199456005927127</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2624718420465678</v>
+        <v>-0.250257534168248</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1786237875256247</v>
+        <v>-0.1804778290242586</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4119578436661211</v>
+        <v>0.4376077684619493</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03165179348764104</v>
+        <v>0.02922826514355864</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08797435565510819</v>
+        <v>0.0834216006859477</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2289450091295509</v>
+        <v>0.243052166643794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.0241776330743393</v>
+        <v>-0.02789800252404558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09085385100308643</v>
+        <v>0.08206983905350108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2316042521221706</v>
+        <v>0.2329887438845791</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06392457162390738</v>
+        <v>-0.05790335836639204</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03026625565145592</v>
+        <v>0.03654118494419632</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.199864067929779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.498796446517355</v>
+        <v>3.498796446517352</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.982099684120328</v>
@@ -1092,7 +1092,7 @@
         <v>0.9523481018900798</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.374233881777923</v>
+        <v>2.374233881777932</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.671908698353104</v>
+        <v>-1.534476244965499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.397048749541821</v>
+        <v>-2.931329575631266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.060887531841032</v>
+        <v>-1.202124162452056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6278469044344206</v>
+        <v>-0.03797899953511567</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.026209119112138</v>
+        <v>-4.231751915871327</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.388775331982014</v>
+        <v>-3.10925380963565</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.085602295437687</v>
+        <v>0.8975181809545691</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.605933877240727</v>
+        <v>-2.169337674993785</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.109335922099181</v>
+        <v>-0.771424116232266</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.420269063491417</v>
+        <v>7.148916101066647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.135835628794577</v>
+        <v>5.428697917389531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.921383840624066</v>
+        <v>7.763913380823661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.853057212919493</v>
+        <v>9.640278868621317</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.550450405950618</v>
+        <v>5.214844940062297</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.576511986972533</v>
+        <v>5.255092915595267</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.405298220509336</v>
+        <v>7.336135759897393</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.755458451488865</v>
+        <v>3.830229496890989</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.293400810819968</v>
+        <v>5.420202659714909</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.06891289217220307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2009495814532956</v>
+        <v>0.2009495814532955</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1918327950089762</v>
@@ -1197,7 +1197,7 @@
         <v>0.04387096709088013</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1093717058781454</v>
+        <v>0.1093717058781458</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08593331197130556</v>
+        <v>-0.07571897107009001</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1655357612905869</v>
+        <v>-0.1501840737302265</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05311313434377848</v>
+        <v>-0.06324574242527897</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02179858269502479</v>
+        <v>-0.01342672667268816</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1427768361624736</v>
+        <v>-0.1478034270062796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1177799673519325</v>
+        <v>-0.1106179383101073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04304148960694889</v>
+        <v>0.03584126085921224</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1116802931590348</v>
+        <v>-0.09252765111826701</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04743190944591578</v>
+        <v>-0.03381851260911854</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4775372550002556</v>
+        <v>0.4783974454955012</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3437076963577769</v>
+        <v>0.3610515929363827</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5144406965879956</v>
+        <v>0.5015899065704181</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.423899141118216</v>
+        <v>0.3943233894694914</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2332692546902782</v>
+        <v>0.2275654208166271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2396759993447138</v>
+        <v>0.2200546081446295</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3675064682118336</v>
+        <v>0.3621938846805831</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1880142476146056</v>
+        <v>0.1942350937010889</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2621033946958762</v>
+        <v>0.2762847752690853</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.2747351652467561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.685929367696831</v>
+        <v>-1.685929367696826</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.83619666166198</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.486496974804659</v>
+        <v>-1.088151846689043</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.731890224924116</v>
+        <v>-3.427064488340495</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.725768274382363</v>
+        <v>-5.32624284035215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.781916489210977</v>
+        <v>1.615845536421771</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.055527765395233</v>
+        <v>-3.398700549443398</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.143290629929133</v>
+        <v>-2.156821914695964</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.669990630481074</v>
+        <v>1.608796873395814</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.264296431015351</v>
+        <v>-2.438575272523599</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.240885816432864</v>
+        <v>-2.438861261273126</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.508426510545536</v>
+        <v>6.620304295806935</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.826454933446666</v>
+        <v>4.389987279622969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.014718177950951</v>
+        <v>2.097277920386373</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.939053908454042</v>
+        <v>10.06906829106369</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.67814112196617</v>
+        <v>4.81417326413677</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.039847879305078</v>
+        <v>5.368138418955897</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.252755134318758</v>
+        <v>7.402989869719542</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.213877908749061</v>
+        <v>3.085311792557146</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.969998816297135</v>
+        <v>2.783548380132792</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.01247659590746899</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.07656340399815791</v>
+        <v>-0.07656340399815766</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2083175199557672</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06445136243834881</v>
+        <v>-0.04388726076858275</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1572079648055343</v>
+        <v>-0.1458436017287633</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2368641988477319</v>
+        <v>-0.2201372444948228</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06048037265327819</v>
+        <v>0.05290535276763359</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1316590647092029</v>
+        <v>-0.1131812305770991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06791760673330244</v>
+        <v>-0.07087728354520299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06244854044463199</v>
+        <v>0.05933767334486761</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08372596146928871</v>
+        <v>-0.09126396350897668</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08404425781363756</v>
+        <v>-0.09336407125237245</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3158672337793589</v>
+        <v>0.3269884309935217</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1894531092536182</v>
+        <v>0.2245855090306926</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09999997423520021</v>
+        <v>0.1040602947208632</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.384586250740228</v>
+        <v>0.3858253630784949</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.186605087574434</v>
+        <v>0.1839652413250218</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1970911947769081</v>
+        <v>0.2110919498677441</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2974063062571715</v>
+        <v>0.3066485658799709</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1334471010919561</v>
+        <v>0.1310781445887776</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1263681418185384</v>
+        <v>0.1175480872341013</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.22779937794907</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.02470210937172</v>
+        <v>1.024702109371722</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.126622269550619</v>
@@ -1520,7 +1520,7 @@
         <v>0.2510742630132845</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.174212772565009</v>
+        <v>1.174212772565006</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.489136115613495</v>
+        <v>1.606552428496381</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.718040046516696</v>
+        <v>-1.667581763112667</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9378960507184675</v>
+        <v>-0.8394996425860189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.989304396834274</v>
+        <v>3.859483974571123</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.046938740883746</v>
+        <v>-1.97188233848519</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.657567137721935</v>
+        <v>-0.761280303003928</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.376691946221799</v>
+        <v>3.486237443728891</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.174036422860114</v>
+        <v>-1.159976355815672</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2671545139297836</v>
+        <v>-0.1555738658824466</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.645266624583321</v>
+        <v>5.66675982758675</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.267804535194192</v>
+        <v>2.246542818291902</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.004881281435319</v>
+        <v>3.040007041215161</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.508512561419261</v>
+        <v>8.19523097148166</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.235267404888454</v>
+        <v>2.546171807871318</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.390378784520181</v>
+        <v>3.302402582405178</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.270165499252762</v>
+        <v>6.567008163189088</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.718078718894004</v>
+        <v>1.73059028203475</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.644098952163954</v>
+        <v>2.643765996018671</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01222516789449775</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.05499205240023092</v>
+        <v>0.05499205240023108</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2307680996990569</v>
@@ -1625,7 +1625,7 @@
         <v>0.01108384423324407</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.05183642206731311</v>
+        <v>0.05183642206731299</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0760295596182287</v>
+        <v>0.08528315115170183</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08722097772660467</v>
+        <v>-0.08552970900735322</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0481573915484242</v>
+        <v>-0.0435836946301876</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1440052723038476</v>
+        <v>0.1372705140510313</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07367397372860289</v>
+        <v>-0.07137248749795534</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02569299474461225</v>
+        <v>-0.02780484530178143</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1442800934607688</v>
+        <v>0.1498485015915767</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0504388857115395</v>
+        <v>-0.05036432318671542</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01187265770617896</v>
+        <v>-0.006373405698258327</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3165300900281507</v>
+        <v>0.3249733039849931</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.131022888067299</v>
+        <v>0.1281601703043734</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.169418681715147</v>
+        <v>0.173827662737605</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.329102801390492</v>
+        <v>0.3187593612495427</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08766864038761858</v>
+        <v>0.1008954869460695</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1341824257009598</v>
+        <v>0.1282350107330137</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2876191252191626</v>
+        <v>0.3011051665246964</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07785057167681969</v>
+        <v>0.07940554407440242</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1202127155708256</v>
+        <v>0.1209500182301967</v>
       </c>
     </row>
     <row r="34">
